--- a/Módulo 3/Limpeza e transformação de dados/oderdate.xlsx
+++ b/Módulo 3/Limpeza e transformação de dados/oderdate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/442e7cdbf85a6b61/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7204DA-F097-4F08-B109-9C1DDC0B3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2B7204DA-F097-4F08-B109-9C1DDC0B3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE11C577-450F-4BB2-8664-B294D4859211}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11760" xr2:uid="{6B202297-36BA-40D1-B06D-C35B9B5AD7B7}"/>
+    <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{6B202297-36BA-40D1-B06D-C35B9B5AD7B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +58,30 @@
   </si>
   <si>
     <t>local</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enviado</t>
+  </si>
+  <si>
+    <t>Aguardando pagamento</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Aguardando devolução</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Alta</t>
   </si>
 </sst>
 </file>
@@ -411,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844023E-D2AA-499A-A5DC-A2309B72164F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,4 +690,176 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70F2E03-77AA-4B52-809F-ED172D219F6E}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>52242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>52592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>52694</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>52799</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>53799</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>54058</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>54059</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>54063</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>54158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>54281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>54404</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>54527</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>54650</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>